--- a/Symphony/2021/SEPTEMBER/All Details/09.09.2021/MC Bank Statement September-2021.xlsx
+++ b/Symphony/2021/SEPTEMBER/All Details/09.09.2021/MC Bank Statement September-2021.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="225">
   <si>
     <t>Date</t>
   </si>
@@ -786,9 +786,6 @@
     <t>Date:09.09.2021</t>
   </si>
   <si>
-    <t>(-)180000</t>
-  </si>
-  <si>
     <t>Discount Offer</t>
   </si>
   <si>
@@ -796,6 +793,12 @@
   </si>
   <si>
     <t>bKash Jafor(-)</t>
+  </si>
+  <si>
+    <t>Hello Daffodils(-)</t>
+  </si>
+  <si>
+    <t>(-)186000</t>
   </si>
 </sst>
 </file>
@@ -3041,12 +3044,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3078,6 +3075,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="39" fillId="35" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6118,67 +6121,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="317" t="s">
+      <c r="A1" s="315" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="317"/>
-      <c r="C1" s="317"/>
-      <c r="D1" s="317"/>
-      <c r="E1" s="317"/>
-      <c r="F1" s="317"/>
-      <c r="G1" s="317"/>
-      <c r="H1" s="317"/>
-      <c r="I1" s="317"/>
-      <c r="J1" s="317"/>
-      <c r="K1" s="317"/>
-      <c r="L1" s="317"/>
-      <c r="M1" s="317"/>
-      <c r="N1" s="317"/>
-      <c r="O1" s="317"/>
-      <c r="P1" s="317"/>
-      <c r="Q1" s="317"/>
+      <c r="B1" s="315"/>
+      <c r="C1" s="315"/>
+      <c r="D1" s="315"/>
+      <c r="E1" s="315"/>
+      <c r="F1" s="315"/>
+      <c r="G1" s="315"/>
+      <c r="H1" s="315"/>
+      <c r="I1" s="315"/>
+      <c r="J1" s="315"/>
+      <c r="K1" s="315"/>
+      <c r="L1" s="315"/>
+      <c r="M1" s="315"/>
+      <c r="N1" s="315"/>
+      <c r="O1" s="315"/>
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
     </row>
     <row r="2" spans="1:24" s="84" customFormat="1" ht="18">
-      <c r="A2" s="318" t="s">
+      <c r="A2" s="316" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="318"/>
-      <c r="C2" s="318"/>
-      <c r="D2" s="318"/>
-      <c r="E2" s="318"/>
-      <c r="F2" s="318"/>
-      <c r="G2" s="318"/>
-      <c r="H2" s="318"/>
-      <c r="I2" s="318"/>
-      <c r="J2" s="318"/>
-      <c r="K2" s="318"/>
-      <c r="L2" s="318"/>
-      <c r="M2" s="318"/>
-      <c r="N2" s="318"/>
-      <c r="O2" s="318"/>
-      <c r="P2" s="318"/>
-      <c r="Q2" s="318"/>
+      <c r="B2" s="316"/>
+      <c r="C2" s="316"/>
+      <c r="D2" s="316"/>
+      <c r="E2" s="316"/>
+      <c r="F2" s="316"/>
+      <c r="G2" s="316"/>
+      <c r="H2" s="316"/>
+      <c r="I2" s="316"/>
+      <c r="J2" s="316"/>
+      <c r="K2" s="316"/>
+      <c r="L2" s="316"/>
+      <c r="M2" s="316"/>
+      <c r="N2" s="316"/>
+      <c r="O2" s="316"/>
+      <c r="P2" s="316"/>
+      <c r="Q2" s="316"/>
     </row>
     <row r="3" spans="1:24" s="85" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="319" t="s">
+      <c r="A3" s="317" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="320"/>
-      <c r="C3" s="320"/>
-      <c r="D3" s="320"/>
-      <c r="E3" s="320"/>
-      <c r="F3" s="320"/>
-      <c r="G3" s="320"/>
-      <c r="H3" s="320"/>
-      <c r="I3" s="320"/>
-      <c r="J3" s="320"/>
-      <c r="K3" s="320"/>
-      <c r="L3" s="320"/>
-      <c r="M3" s="320"/>
-      <c r="N3" s="320"/>
-      <c r="O3" s="320"/>
-      <c r="P3" s="320"/>
-      <c r="Q3" s="321"/>
+      <c r="B3" s="318"/>
+      <c r="C3" s="318"/>
+      <c r="D3" s="318"/>
+      <c r="E3" s="318"/>
+      <c r="F3" s="318"/>
+      <c r="G3" s="318"/>
+      <c r="H3" s="318"/>
+      <c r="I3" s="318"/>
+      <c r="J3" s="318"/>
+      <c r="K3" s="318"/>
+      <c r="L3" s="318"/>
+      <c r="M3" s="318"/>
+      <c r="N3" s="318"/>
+      <c r="O3" s="318"/>
+      <c r="P3" s="318"/>
+      <c r="Q3" s="319"/>
       <c r="S3" s="67"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6187,49 +6190,49 @@
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24" s="86" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="322" t="s">
+      <c r="A4" s="320" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="324" t="s">
+      <c r="B4" s="322" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="313" t="s">
+      <c r="C4" s="324" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="313" t="s">
+      <c r="D4" s="324" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="313" t="s">
+      <c r="E4" s="324" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="313" t="s">
+      <c r="F4" s="324" t="s">
         <v>202</v>
       </c>
-      <c r="G4" s="313" t="s">
+      <c r="G4" s="324" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="313" t="s">
+      <c r="H4" s="324" t="s">
         <v>165</v>
       </c>
-      <c r="I4" s="313" t="s">
+      <c r="I4" s="324" t="s">
         <v>214</v>
       </c>
-      <c r="J4" s="313" t="s">
+      <c r="J4" s="324" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="313" t="s">
+      <c r="K4" s="324" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="313" t="s">
+      <c r="L4" s="324" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="313" t="s">
+      <c r="M4" s="324" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="313" t="s">
+      <c r="N4" s="324" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="315" t="s">
+      <c r="O4" s="313" t="s">
         <v>56</v>
       </c>
       <c r="P4" s="326" t="s">
@@ -6245,21 +6248,21 @@
       <c r="W4" s="88"/>
     </row>
     <row r="5" spans="1:24" s="86" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="323"/>
-      <c r="B5" s="325"/>
-      <c r="C5" s="314"/>
-      <c r="D5" s="314"/>
-      <c r="E5" s="314"/>
-      <c r="F5" s="314"/>
-      <c r="G5" s="314"/>
-      <c r="H5" s="314"/>
-      <c r="I5" s="314"/>
-      <c r="J5" s="314"/>
-      <c r="K5" s="314"/>
-      <c r="L5" s="314"/>
-      <c r="M5" s="314"/>
-      <c r="N5" s="314"/>
-      <c r="O5" s="316"/>
+      <c r="A5" s="321"/>
+      <c r="B5" s="323"/>
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
+      <c r="E5" s="325"/>
+      <c r="F5" s="325"/>
+      <c r="G5" s="325"/>
+      <c r="H5" s="325"/>
+      <c r="I5" s="325"/>
+      <c r="J5" s="325"/>
+      <c r="K5" s="325"/>
+      <c r="L5" s="325"/>
+      <c r="M5" s="325"/>
+      <c r="N5" s="325"/>
+      <c r="O5" s="314"/>
       <c r="P5" s="327"/>
       <c r="Q5" s="155" t="s">
         <v>57</v>
@@ -9263,6 +9266,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9279,9 +9285,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9644,7 +9647,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="165" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H4" s="79"/>
       <c r="I4" s="172"/>
@@ -18159,7 +18162,7 @@
         <v>206</v>
       </c>
       <c r="B81" s="72" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C81" s="138"/>
       <c r="D81" s="246">
@@ -33766,8 +33769,8 @@
   </sheetPr>
   <dimension ref="A1:AC220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="G11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33917,11 +33920,11 @@
         <v>11</v>
       </c>
       <c r="E6" s="49">
-        <v>3815390.3435714198</v>
+        <v>3821390.3435714282</v>
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="290" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H6" s="291" t="s">
         <v>218</v>
@@ -33995,7 +33998,7 @@
         <v>82</v>
       </c>
       <c r="E8" s="131">
-        <v>9209.0000000083819</v>
+        <v>53209</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="288"/>
@@ -34209,10 +34212,10 @@
     </row>
     <row r="14" spans="1:29" ht="21.75">
       <c r="A14" s="156" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B14" s="280">
-        <v>600000</v>
+        <v>300000</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="151"/>
@@ -34245,8 +34248,12 @@
       <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="1:29" ht="21.75">
-      <c r="A15" s="45"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="139" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="52">
+        <v>250000</v>
+      </c>
       <c r="C15" s="47"/>
       <c r="D15" s="151"/>
       <c r="E15" s="150"/>
@@ -34281,8 +34288,8 @@
         <v>5</v>
       </c>
       <c r="B16" s="51">
-        <f>B6+B7+B8-B10-B14-B11</f>
-        <v>7523711.3435714282</v>
+        <f>B6+B7+B8-B10-B14-B11-B15</f>
+        <v>7573711.3435714282</v>
       </c>
       <c r="C16" s="47"/>
       <c r="D16" s="47" t="s">
@@ -34290,7 +34297,7 @@
       </c>
       <c r="E16" s="50">
         <f>E6+E7+E8+E11+E12+E13</f>
-        <v>7523711.3435714282</v>
+        <v>7573711.3435714282</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="132">
